--- a/figure8.xlsx
+++ b/figure8.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Desktop\Atilce-II\word\IJMS\github数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A129A6E-D10D-4562-A205-B3661406BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F94174-5622-443E-8560-3BA8596B47B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="(b)" sheetId="1" r:id="rId1"/>
+    <sheet name="(b)" sheetId="2" r:id="rId1"/>
+    <sheet name="(d)" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>UTS</t>
   </si>
@@ -67,6 +68,33 @@
   </si>
   <si>
     <t>Point3</t>
+  </si>
+  <si>
+    <t>Tensile strength(MPa)</t>
+  </si>
+  <si>
+    <t>Toughness(Mpa·m1/2)</t>
+  </si>
+  <si>
+    <t>All data</t>
+  </si>
+  <si>
+    <t>Best property</t>
+  </si>
+  <si>
+    <t>Right data</t>
+  </si>
+  <si>
+    <t>Test data</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>第四列</t>
   </si>
 </sst>
 </file>
@@ -390,11 +418,7824 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BBE359-AB01-46CE-AB29-417E39AF72B3}">
+  <dimension ref="A1:H886"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>308.30434000000002</v>
+      </c>
+      <c r="B4">
+        <v>25.03989</v>
+      </c>
+      <c r="C4">
+        <v>333.06002999999998</v>
+      </c>
+      <c r="D4">
+        <v>20.223320000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>308.70161999999999</v>
+      </c>
+      <c r="B5">
+        <v>24.933399999999999</v>
+      </c>
+      <c r="C5">
+        <v>335.11507999999998</v>
+      </c>
+      <c r="D5">
+        <v>20.099329999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>309.20774999999998</v>
+      </c>
+      <c r="B6">
+        <v>24.751239999999999</v>
+      </c>
+      <c r="C6">
+        <v>335.0462</v>
+      </c>
+      <c r="D6">
+        <v>20.002359999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>309.07821000000001</v>
+      </c>
+      <c r="B7">
+        <v>24.96508</v>
+      </c>
+      <c r="C7">
+        <v>337.87195000000003</v>
+      </c>
+      <c r="D7">
+        <v>19.483170000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>312.57634999999999</v>
+      </c>
+      <c r="B8">
+        <v>24.452529999999999</v>
+      </c>
+      <c r="C8">
+        <v>337.48872999999998</v>
+      </c>
+      <c r="D8">
+        <v>19.931080000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>312.89884000000001</v>
+      </c>
+      <c r="B9">
+        <v>24.275369999999999</v>
+      </c>
+      <c r="C9">
+        <v>352.26119999999997</v>
+      </c>
+      <c r="D9">
+        <v>16.628119999999999</v>
+      </c>
+      <c r="E9">
+        <v>306.22924999999998</v>
+      </c>
+      <c r="F9">
+        <v>29.56654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>312.62991</v>
+      </c>
+      <c r="B10">
+        <v>23.058479999999999</v>
+      </c>
+      <c r="C10">
+        <v>351.75623999999999</v>
+      </c>
+      <c r="D10">
+        <v>16.53314</v>
+      </c>
+      <c r="E10">
+        <v>307.42392000000001</v>
+      </c>
+      <c r="F10">
+        <v>29.79447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>313.94375000000002</v>
+      </c>
+      <c r="B11">
+        <v>22.4528</v>
+      </c>
+      <c r="C11">
+        <v>336.25013000000001</v>
+      </c>
+      <c r="D11">
+        <v>19.725079999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>314.91233</v>
+      </c>
+      <c r="B12">
+        <v>22.178660000000001</v>
+      </c>
+      <c r="C12">
+        <v>343.89055000000002</v>
+      </c>
+      <c r="D12">
+        <v>18.716760000000001</v>
+      </c>
+      <c r="E12">
+        <v>309.69605000000001</v>
+      </c>
+      <c r="F12">
+        <v>28.746729999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>317.27436999999998</v>
+      </c>
+      <c r="B13">
+        <v>21.101780000000002</v>
+      </c>
+      <c r="C13">
+        <v>351.64443999999997</v>
+      </c>
+      <c r="D13">
+        <v>16.960059999999999</v>
+      </c>
+      <c r="E13">
+        <v>310.20159999999998</v>
+      </c>
+      <c r="F13">
+        <v>26.51407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>317.53622000000001</v>
+      </c>
+      <c r="B14">
+        <v>19.738980000000002</v>
+      </c>
+      <c r="C14">
+        <v>314.77260000000001</v>
+      </c>
+      <c r="D14">
+        <v>27.771789999999999</v>
+      </c>
+      <c r="E14">
+        <v>311.39033000000001</v>
+      </c>
+      <c r="F14">
+        <v>25.55218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>316.58114</v>
+      </c>
+      <c r="B15">
+        <v>19.011769999999999</v>
+      </c>
+      <c r="C15">
+        <v>316.23034000000001</v>
+      </c>
+      <c r="D15">
+        <v>26.683440000000001</v>
+      </c>
+      <c r="E15">
+        <v>312.14636000000002</v>
+      </c>
+      <c r="F15">
+        <v>26.07535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>318.76060999999999</v>
+      </c>
+      <c r="B16">
+        <v>19.662500000000001</v>
+      </c>
+      <c r="C16">
+        <v>316.97007000000002</v>
+      </c>
+      <c r="D16">
+        <v>25.786020000000001</v>
+      </c>
+      <c r="E16">
+        <v>313.51665000000003</v>
+      </c>
+      <c r="F16">
+        <v>25.073149999999998</v>
+      </c>
+      <c r="G16">
+        <v>316.97007000000002</v>
+      </c>
+      <c r="H16">
+        <v>25.786020000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>318.27341000000001</v>
+      </c>
+      <c r="B17">
+        <v>19.442129999999999</v>
+      </c>
+      <c r="C17">
+        <v>318.92687000000001</v>
+      </c>
+      <c r="D17">
+        <v>25.30198</v>
+      </c>
+      <c r="E17">
+        <v>314.09996000000001</v>
+      </c>
+      <c r="F17">
+        <v>24.920439999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>321.00599999999997</v>
+      </c>
+      <c r="B18">
+        <v>19.127400000000002</v>
+      </c>
+      <c r="C18">
+        <v>320.17453</v>
+      </c>
+      <c r="D18">
+        <v>25.245429999999999</v>
+      </c>
+      <c r="E18">
+        <v>315.75909999999999</v>
+      </c>
+      <c r="F18">
+        <v>24.331160000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>323.05160999999998</v>
+      </c>
+      <c r="B19">
+        <v>19.868510000000001</v>
+      </c>
+      <c r="C19">
+        <v>328.05808000000002</v>
+      </c>
+      <c r="D19">
+        <v>22.175460000000001</v>
+      </c>
+      <c r="E19">
+        <v>316.26391000000001</v>
+      </c>
+      <c r="F19">
+        <v>24.227650000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>323.29543000000001</v>
+      </c>
+      <c r="B20">
+        <v>17.534490000000002</v>
+      </c>
+      <c r="C20">
+        <v>329.10219000000001</v>
+      </c>
+      <c r="D20">
+        <v>21.730969999999999</v>
+      </c>
+      <c r="E20">
+        <v>317.41244999999998</v>
+      </c>
+      <c r="F20">
+        <v>23.51146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>326.76546999999999</v>
+      </c>
+      <c r="B21">
+        <v>18.684139999999999</v>
+      </c>
+      <c r="C21">
+        <v>334.48912000000001</v>
+      </c>
+      <c r="D21">
+        <v>20.790120000000002</v>
+      </c>
+      <c r="E21">
+        <v>318.49092000000002</v>
+      </c>
+      <c r="F21">
+        <v>22.849019999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>327.94540999999998</v>
+      </c>
+      <c r="B22">
+        <v>17.321660000000001</v>
+      </c>
+      <c r="C22">
+        <v>336.70589999999999</v>
+      </c>
+      <c r="D22">
+        <v>19.97325</v>
+      </c>
+      <c r="E22">
+        <v>319.09651000000002</v>
+      </c>
+      <c r="F22">
+        <v>23.013870000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>332.72822000000002</v>
+      </c>
+      <c r="B23">
+        <v>18.235109999999999</v>
+      </c>
+      <c r="C23">
+        <v>322.90424000000002</v>
+      </c>
+      <c r="D23">
+        <v>23.911919999999999</v>
+      </c>
+      <c r="E23">
+        <v>320.33911000000001</v>
+      </c>
+      <c r="F23">
+        <v>22.257169999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>309.77409999999998</v>
+      </c>
+      <c r="B24">
+        <v>27.613389999999999</v>
+      </c>
+      <c r="C24">
+        <v>330.03798999999998</v>
+      </c>
+      <c r="D24">
+        <v>21.75675</v>
+      </c>
+      <c r="E24">
+        <v>321.36259000000001</v>
+      </c>
+      <c r="F24">
+        <v>22.09055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>312.21508999999998</v>
+      </c>
+      <c r="B25">
+        <v>24.886600000000001</v>
+      </c>
+      <c r="C25">
+        <v>333.33035000000001</v>
+      </c>
+      <c r="D25">
+        <v>21.51033</v>
+      </c>
+      <c r="E25">
+        <v>322.62141000000003</v>
+      </c>
+      <c r="F25">
+        <v>21.886810000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>313.54023999999998</v>
+      </c>
+      <c r="B26">
+        <v>24.821259999999999</v>
+      </c>
+      <c r="C26">
+        <v>334.47967</v>
+      </c>
+      <c r="D26">
+        <v>20.34328</v>
+      </c>
+      <c r="E26">
+        <v>323.24288000000001</v>
+      </c>
+      <c r="F26">
+        <v>21.482769999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>313.65044</v>
+      </c>
+      <c r="B27">
+        <v>23.253340000000001</v>
+      </c>
+      <c r="C27">
+        <v>338.32353000000001</v>
+      </c>
+      <c r="D27">
+        <v>19.656189999999999</v>
+      </c>
+      <c r="E27">
+        <v>324.34293000000002</v>
+      </c>
+      <c r="F27">
+        <v>21.26108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>315.44607000000002</v>
+      </c>
+      <c r="B28">
+        <v>22.85641</v>
+      </c>
+      <c r="C28">
+        <v>338.84957000000003</v>
+      </c>
+      <c r="D28">
+        <v>19.711939999999998</v>
+      </c>
+      <c r="E28">
+        <v>325.97070000000002</v>
+      </c>
+      <c r="F28">
+        <v>21.004390000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>317.29896000000002</v>
+      </c>
+      <c r="B29">
+        <v>22.50573</v>
+      </c>
+      <c r="C29">
+        <v>342.85482999999999</v>
+      </c>
+      <c r="D29">
+        <v>18.872389999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>318.12166000000002</v>
+      </c>
+      <c r="B30">
+        <v>21.34591</v>
+      </c>
+      <c r="C30">
+        <v>344.00412999999998</v>
+      </c>
+      <c r="D30">
+        <v>18.59121</v>
+      </c>
+      <c r="E30">
+        <v>327.07814999999999</v>
+      </c>
+      <c r="F30">
+        <v>21.1892</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>318.53359999999998</v>
+      </c>
+      <c r="B31">
+        <v>21.049230000000001</v>
+      </c>
+      <c r="C31">
+        <v>349.82634999999999</v>
+      </c>
+      <c r="D31">
+        <v>17.14376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>319.51754</v>
+      </c>
+      <c r="B32">
+        <v>20.995509999999999</v>
+      </c>
+      <c r="C32">
+        <v>332.26807000000002</v>
+      </c>
+      <c r="D32">
+        <v>20.460229999999999</v>
+      </c>
+      <c r="E32">
+        <v>329.09883000000002</v>
+      </c>
+      <c r="F32">
+        <v>20.400790000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>318.68180999999998</v>
+      </c>
+      <c r="B33">
+        <v>20.73583</v>
+      </c>
+      <c r="C33">
+        <v>342.36362000000003</v>
+      </c>
+      <c r="D33">
+        <v>18.04373</v>
+      </c>
+      <c r="E33">
+        <v>330.99261000000001</v>
+      </c>
+      <c r="F33">
+        <v>19.57677</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>318.73334</v>
+      </c>
+      <c r="B34">
+        <v>18.87602</v>
+      </c>
+      <c r="C34">
+        <v>346.1078</v>
+      </c>
+      <c r="D34">
+        <v>17.601220000000001</v>
+      </c>
+      <c r="E34">
+        <v>331.56349999999998</v>
+      </c>
+      <c r="F34">
+        <v>19.489319999999999</v>
+      </c>
+      <c r="G34">
+        <v>346.1078</v>
+      </c>
+      <c r="H34">
+        <v>17.601220000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>322.51920000000001</v>
+      </c>
+      <c r="B35">
+        <v>18.61703</v>
+      </c>
+      <c r="C35">
+        <v>333.13098000000002</v>
+      </c>
+      <c r="D35">
+        <v>20.431519999999999</v>
+      </c>
+      <c r="E35">
+        <v>332.55748999999997</v>
+      </c>
+      <c r="F35">
+        <v>19.63205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>322.32121000000001</v>
+      </c>
+      <c r="B36">
+        <v>18.654710000000001</v>
+      </c>
+      <c r="C36">
+        <v>336.39326</v>
+      </c>
+      <c r="D36">
+        <v>20.003229999999999</v>
+      </c>
+      <c r="E36">
+        <v>333.90735000000001</v>
+      </c>
+      <c r="F36">
+        <v>18.512879999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>323.94531999999998</v>
+      </c>
+      <c r="B37">
+        <v>18.504960000000001</v>
+      </c>
+      <c r="C37">
+        <v>344.49705</v>
+      </c>
+      <c r="D37">
+        <v>18.323899999999998</v>
+      </c>
+      <c r="E37">
+        <v>334.01909000000001</v>
+      </c>
+      <c r="F37">
+        <v>19.134170000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>325.08294000000001</v>
+      </c>
+      <c r="B38">
+        <v>18.31653</v>
+      </c>
+      <c r="C38">
+        <v>346.48703999999998</v>
+      </c>
+      <c r="D38">
+        <v>17.45626</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>329.48018999999999</v>
+      </c>
+      <c r="B39">
+        <v>17.920909999999999</v>
+      </c>
+      <c r="C39">
+        <v>336.62293</v>
+      </c>
+      <c r="D39">
+        <v>19.938859999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>326.96384999999998</v>
+      </c>
+      <c r="B40">
+        <v>17.627659999999999</v>
+      </c>
+      <c r="E40">
+        <v>337.7106</v>
+      </c>
+      <c r="F40">
+        <v>17.296749999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>330.11714999999998</v>
+      </c>
+      <c r="B41">
+        <v>17.405429999999999</v>
+      </c>
+      <c r="E41">
+        <v>338.20103999999998</v>
+      </c>
+      <c r="F41">
+        <v>18.366579999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>328.61878000000002</v>
+      </c>
+      <c r="B42">
+        <v>16.94576</v>
+      </c>
+      <c r="E42">
+        <v>339.23647999999997</v>
+      </c>
+      <c r="F42">
+        <v>17.02741</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>307.52728000000002</v>
+      </c>
+      <c r="B43">
+        <v>26.618369999999999</v>
+      </c>
+      <c r="C43">
+        <v>370.14481999999998</v>
+      </c>
+      <c r="D43">
+        <v>14.75681</v>
+      </c>
+      <c r="E43">
+        <v>340.67867999999999</v>
+      </c>
+      <c r="F43">
+        <v>16.14536</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>307.75020999999998</v>
+      </c>
+      <c r="B44">
+        <v>25.241769999999999</v>
+      </c>
+      <c r="E44">
+        <v>341.81029999999998</v>
+      </c>
+      <c r="F44">
+        <v>15.9877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>309.46749</v>
+      </c>
+      <c r="B45">
+        <v>25.10229</v>
+      </c>
+      <c r="C45">
+        <v>381.14384999999999</v>
+      </c>
+      <c r="D45">
+        <v>14.311540000000001</v>
+      </c>
+      <c r="E45">
+        <v>342.21578</v>
+      </c>
+      <c r="F45">
+        <v>15.75079</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>310.62254999999999</v>
+      </c>
+      <c r="B46">
+        <v>25.008379999999999</v>
+      </c>
+      <c r="C46">
+        <v>388.91081000000003</v>
+      </c>
+      <c r="D46">
+        <v>13.28947</v>
+      </c>
+      <c r="E46">
+        <v>343.34721000000002</v>
+      </c>
+      <c r="F46">
+        <v>15.98507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>311.65007000000003</v>
+      </c>
+      <c r="B47">
+        <v>24.779160000000001</v>
+      </c>
+      <c r="E47">
+        <v>344.20533</v>
+      </c>
+      <c r="F47">
+        <v>14.791219999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>311.93601000000001</v>
+      </c>
+      <c r="B48">
+        <v>23.34431</v>
+      </c>
+      <c r="C48">
+        <v>393.08823999999998</v>
+      </c>
+      <c r="D48">
+        <v>13.23441</v>
+      </c>
+      <c r="E48">
+        <v>345.10034000000002</v>
+      </c>
+      <c r="F48">
+        <v>15.82437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>312.92207999999999</v>
+      </c>
+      <c r="B49">
+        <v>22.788340000000002</v>
+      </c>
+      <c r="C49">
+        <v>404.95139</v>
+      </c>
+      <c r="D49">
+        <v>12.63063</v>
+      </c>
+      <c r="E49">
+        <v>346.41879999999998</v>
+      </c>
+      <c r="F49">
+        <v>15.40757</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>313.00686000000002</v>
+      </c>
+      <c r="B50">
+        <v>21.401959999999999</v>
+      </c>
+      <c r="C50">
+        <v>404.98638</v>
+      </c>
+      <c r="D50">
+        <v>12.55025</v>
+      </c>
+      <c r="E50">
+        <v>347.07222999999999</v>
+      </c>
+      <c r="F50">
+        <v>14.77398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>314.35095000000001</v>
+      </c>
+      <c r="B51">
+        <v>20.920809999999999</v>
+      </c>
+      <c r="C51">
+        <v>388.19655</v>
+      </c>
+      <c r="D51">
+        <v>13.459160000000001</v>
+      </c>
+      <c r="E51">
+        <v>348.43605000000002</v>
+      </c>
+      <c r="F51">
+        <v>15.54317</v>
+      </c>
+      <c r="G51">
+        <v>388.19655</v>
+      </c>
+      <c r="H51">
+        <v>13.459160000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>314.47624999999999</v>
+      </c>
+      <c r="B52">
+        <v>21.127179999999999</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>315.22771999999998</v>
+      </c>
+      <c r="B53">
+        <v>20.438389999999998</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>316.60681</v>
+      </c>
+      <c r="B54">
+        <v>19.17069</v>
+      </c>
+      <c r="E54">
+        <v>351.03890000000001</v>
+      </c>
+      <c r="F54">
+        <v>14.90875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>317.59730999999999</v>
+      </c>
+      <c r="B55">
+        <v>18.629549999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>318.87248</v>
+      </c>
+      <c r="B56">
+        <v>18.520759999999999</v>
+      </c>
+      <c r="E56">
+        <v>353.48835000000003</v>
+      </c>
+      <c r="F56">
+        <v>14.86018</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>319.84611000000001</v>
+      </c>
+      <c r="B57">
+        <v>18.201509999999999</v>
+      </c>
+      <c r="E57">
+        <v>354.54145</v>
+      </c>
+      <c r="F57">
+        <v>14.770289999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>320.20366999999999</v>
+      </c>
+      <c r="B58">
+        <v>17.669280000000001</v>
+      </c>
+      <c r="E58">
+        <v>355.61966999999999</v>
+      </c>
+      <c r="F58">
+        <v>14.378740000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>321.64789000000002</v>
+      </c>
+      <c r="B59">
+        <v>17.182400000000001</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>323.49565000000001</v>
+      </c>
+      <c r="B60">
+        <v>17.113520000000001</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>324.05437999999998</v>
+      </c>
+      <c r="B61">
+        <v>17.004899999999999</v>
+      </c>
+      <c r="E61">
+        <v>358.28304000000003</v>
+      </c>
+      <c r="F61">
+        <v>13.97212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>325.18794000000003</v>
+      </c>
+      <c r="B62">
+        <v>16.56916</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>326.47224999999997</v>
+      </c>
+      <c r="B63">
+        <v>16.656980000000001</v>
+      </c>
+      <c r="E63">
+        <v>360.88440000000003</v>
+      </c>
+      <c r="F63">
+        <v>13.757529999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>327.00520999999998</v>
+      </c>
+      <c r="B64">
+        <v>16.725370000000002</v>
+      </c>
+      <c r="E64">
+        <v>361.27386000000001</v>
+      </c>
+      <c r="F64">
+        <v>13.412419999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>306.49858</v>
+      </c>
+      <c r="B65">
+        <v>26.468050000000002</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>309.45287000000002</v>
+      </c>
+      <c r="B66">
+        <v>25.910039999999999</v>
+      </c>
+      <c r="E66">
+        <v>363.28304000000003</v>
+      </c>
+      <c r="F66">
+        <v>13.47212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>309.59449000000001</v>
+      </c>
+      <c r="B67">
+        <v>24.787520000000001</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>310.27091999999999</v>
+      </c>
+      <c r="B68">
+        <v>24.444310000000002</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>311.38997000000001</v>
+      </c>
+      <c r="B69">
+        <v>22.781669999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>311.53294</v>
+      </c>
+      <c r="B70">
+        <v>21.811309999999999</v>
+      </c>
+      <c r="E70">
+        <v>367.08647000000002</v>
+      </c>
+      <c r="F70">
+        <v>13.14348</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>312.53026</v>
+      </c>
+      <c r="B71">
+        <v>21.46275</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>313.55533000000003</v>
+      </c>
+      <c r="B72">
+        <v>20.65992</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>314.31531999999999</v>
+      </c>
+      <c r="B73">
+        <v>20.306619999999999</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>315.73998999999998</v>
+      </c>
+      <c r="B74">
+        <v>20.28314</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>316.84429</v>
+      </c>
+      <c r="B75">
+        <v>20.234190000000002</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>318.04478999999998</v>
+      </c>
+      <c r="B76">
+        <v>20.113399999999999</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>318.05705999999998</v>
+      </c>
+      <c r="B77">
+        <v>19.54861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>318.77384999999998</v>
+      </c>
+      <c r="B78">
+        <v>19.160550000000001</v>
+      </c>
+      <c r="E78">
+        <v>375.86470000000003</v>
+      </c>
+      <c r="F78">
+        <v>13.55204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>319.69342999999998</v>
+      </c>
+      <c r="B79">
+        <v>19.024850000000001</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>319.71393999999998</v>
+      </c>
+      <c r="B80">
+        <v>18.218119999999999</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>320.12723999999997</v>
+      </c>
+      <c r="B81">
+        <v>17.61467</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>321.5351</v>
+      </c>
+      <c r="B82">
+        <v>17.404350000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>322.99736000000001</v>
+      </c>
+      <c r="B83">
+        <v>17.633900000000001</v>
+      </c>
+      <c r="E83">
+        <v>380.69150000000002</v>
+      </c>
+      <c r="F83">
+        <v>12.483409999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>324.83900999999997</v>
+      </c>
+      <c r="B84">
+        <v>17.311160000000001</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>325.89091999999999</v>
+      </c>
+      <c r="B85">
+        <v>17.100210000000001</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>326.51062000000002</v>
+      </c>
+      <c r="B86">
+        <v>16.859000000000002</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>306.83693</v>
+      </c>
+      <c r="B87">
+        <v>25.931480000000001</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>308.34093999999999</v>
+      </c>
+      <c r="B88">
+        <v>25.872330000000002</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>309.87688000000003</v>
+      </c>
+      <c r="B89">
+        <v>25.263069999999999</v>
+      </c>
+      <c r="E89">
+        <v>386.70042999999998</v>
+      </c>
+      <c r="F89">
+        <v>11.131349999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>310.76441</v>
+      </c>
+      <c r="B90">
+        <v>23.536239999999999</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>312.54575</v>
+      </c>
+      <c r="B91">
+        <v>22.129660000000001</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>312.63243999999997</v>
+      </c>
+      <c r="B92">
+        <v>21.95</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>313.42234000000002</v>
+      </c>
+      <c r="B93">
+        <v>20.788730000000001</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>313.45433000000003</v>
+      </c>
+      <c r="B94">
+        <v>20.24925</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>315.28868</v>
+      </c>
+      <c r="B95">
+        <v>19.84243</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>315.47210000000001</v>
+      </c>
+      <c r="B96">
+        <v>19.8979</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>315.59131000000002</v>
+      </c>
+      <c r="B97">
+        <v>18.27928</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>316.01560999999998</v>
+      </c>
+      <c r="B98">
+        <v>17.810230000000001</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>318.69020999999998</v>
+      </c>
+      <c r="B99">
+        <v>17.810970000000001</v>
+      </c>
+      <c r="E99">
+        <v>396.29252000000002</v>
+      </c>
+      <c r="F99">
+        <v>11.844390000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>319.21168999999998</v>
+      </c>
+      <c r="B100">
+        <v>16.54438</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>320.92970000000003</v>
+      </c>
+      <c r="B101">
+        <v>16.853349999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>321.39622000000003</v>
+      </c>
+      <c r="B102">
+        <v>16.230149999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>322.20278000000002</v>
+      </c>
+      <c r="B103">
+        <v>15.37665</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>322.91991999999999</v>
+      </c>
+      <c r="B104">
+        <v>15.9476</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>327.15703000000002</v>
+      </c>
+      <c r="B105">
+        <v>15.82443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>309.77767</v>
+      </c>
+      <c r="B106">
+        <v>22.092020000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>311.07996000000003</v>
+      </c>
+      <c r="B107">
+        <v>21.599699999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>311.49428999999998</v>
+      </c>
+      <c r="B108">
+        <v>21.945969999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>312.59658999999999</v>
+      </c>
+      <c r="B109">
+        <v>21.08099</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>312.71960999999999</v>
+      </c>
+      <c r="B110">
+        <v>21.025870000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>313.53588999999999</v>
+      </c>
+      <c r="B111">
+        <v>20.906310000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>314.30318</v>
+      </c>
+      <c r="B112">
+        <v>20.50244</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>315.48284000000001</v>
+      </c>
+      <c r="B113">
+        <v>20.041070000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>316.19895000000002</v>
+      </c>
+      <c r="B114">
+        <v>18.454260000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>317.07812000000001</v>
+      </c>
+      <c r="B115">
+        <v>18.319030000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>318.28424000000001</v>
+      </c>
+      <c r="B116">
+        <v>16.88786</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>319.83091000000002</v>
+      </c>
+      <c r="B117">
+        <v>16.9848</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>320.50510000000003</v>
+      </c>
+      <c r="B118">
+        <v>16.959949999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>321.04741000000001</v>
+      </c>
+      <c r="B119">
+        <v>15.88547</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>323.05703</v>
+      </c>
+      <c r="B120">
+        <v>16.01041</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>322.68851999999998</v>
+      </c>
+      <c r="B121">
+        <v>15.516999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>324.23527999999999</v>
+      </c>
+      <c r="B122">
+        <v>16.499479999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>325.60518000000002</v>
+      </c>
+      <c r="B123">
+        <v>16.62143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>327.08407999999997</v>
+      </c>
+      <c r="B124">
+        <v>16.919170000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>328.59293000000002</v>
+      </c>
+      <c r="B125">
+        <v>15.96942</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>307.97282000000001</v>
+      </c>
+      <c r="B126">
+        <v>26.8535</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>308.92772000000002</v>
+      </c>
+      <c r="B127">
+        <v>19.873999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>309.13234</v>
+      </c>
+      <c r="B128">
+        <v>21.587150000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>309.87560999999999</v>
+      </c>
+      <c r="B129">
+        <v>21.504049999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>310.45567</v>
+      </c>
+      <c r="B130">
+        <v>21.854610000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>310.95828</v>
+      </c>
+      <c r="B131">
+        <v>21.484500000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>311.96782999999999</v>
+      </c>
+      <c r="B132">
+        <v>21.802969999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>312.95395000000002</v>
+      </c>
+      <c r="B133">
+        <v>20.368510000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>313.99401</v>
+      </c>
+      <c r="B134">
+        <v>19.208269999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>314.45503000000002</v>
+      </c>
+      <c r="B135">
+        <v>19.01727</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>314.74572999999998</v>
+      </c>
+      <c r="B136">
+        <v>16.849599999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>317.24317000000002</v>
+      </c>
+      <c r="B137">
+        <v>17.842390000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>317.97061000000002</v>
+      </c>
+      <c r="B138">
+        <v>17.23377</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>319.60230000000001</v>
+      </c>
+      <c r="B139">
+        <v>17.863489999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>320.30180000000001</v>
+      </c>
+      <c r="B140">
+        <v>17.222190000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>321.36207000000002</v>
+      </c>
+      <c r="B141">
+        <v>18.189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>321.54845</v>
+      </c>
+      <c r="B142">
+        <v>16.066040000000001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>321.63260000000002</v>
+      </c>
+      <c r="B143">
+        <v>17.12499</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>321.93419</v>
+      </c>
+      <c r="B144">
+        <v>15.18092</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>322.55043999999998</v>
+      </c>
+      <c r="B145">
+        <v>15.994429999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>322.91277000000002</v>
+      </c>
+      <c r="B146">
+        <v>16.085360000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>309.90503999999999</v>
+      </c>
+      <c r="B147">
+        <v>20.2531</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>310.87520999999998</v>
+      </c>
+      <c r="B148">
+        <v>20.28669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>311.55074999999999</v>
+      </c>
+      <c r="B149">
+        <v>19.437809999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>312.50657000000001</v>
+      </c>
+      <c r="B150">
+        <v>19.07976</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>313.14136999999999</v>
+      </c>
+      <c r="B151">
+        <v>19.470859999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>314.37290999999999</v>
+      </c>
+      <c r="B152">
+        <v>20.79186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>314.82497999999998</v>
+      </c>
+      <c r="B153">
+        <v>18.990960000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>315.60082999999997</v>
+      </c>
+      <c r="B154">
+        <v>19.408760000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>316.44044000000002</v>
+      </c>
+      <c r="B155">
+        <v>17.565169999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>317.80743000000001</v>
+      </c>
+      <c r="B156">
+        <v>16.270060000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>317.88028000000003</v>
+      </c>
+      <c r="B157">
+        <v>17.579180000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>319.95715999999999</v>
+      </c>
+      <c r="B158">
+        <v>15.9588</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>320.62520000000001</v>
+      </c>
+      <c r="B159">
+        <v>15.81245</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>322.09278</v>
+      </c>
+      <c r="B160">
+        <v>14.87595</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>307.47604999999999</v>
+      </c>
+      <c r="B161">
+        <v>26.446850000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>310.20159999999998</v>
+      </c>
+      <c r="B162">
+        <v>26.51407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>310.29836999999998</v>
+      </c>
+      <c r="B163">
+        <v>26.206060000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>312.52798000000001</v>
+      </c>
+      <c r="B164">
+        <v>25.421150000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>313.38081</v>
+      </c>
+      <c r="B165">
+        <v>24.344249999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>314.09996000000001</v>
+      </c>
+      <c r="B166">
+        <v>24.920439999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>314.12173000000001</v>
+      </c>
+      <c r="B167">
+        <v>23.224989999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>314.70531999999997</v>
+      </c>
+      <c r="B168">
+        <v>23.363299999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>317.51366000000002</v>
+      </c>
+      <c r="B169">
+        <v>21.028590000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>318.21114</v>
+      </c>
+      <c r="B170">
+        <v>21.627030000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>319.40422000000001</v>
+      </c>
+      <c r="B171">
+        <v>21.288209999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>319.58346999999998</v>
+      </c>
+      <c r="B172">
+        <v>20.817740000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>321.54048999999998</v>
+      </c>
+      <c r="B173">
+        <v>20.460699999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>323.14379000000002</v>
+      </c>
+      <c r="B174">
+        <v>20.655830000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>308.38263000000001</v>
+      </c>
+      <c r="B175">
+        <v>28.03642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>309.69605000000001</v>
+      </c>
+      <c r="B176">
+        <v>28.746729999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>309.78987000000001</v>
+      </c>
+      <c r="B177">
+        <v>27.511489999999998</v>
+      </c>
+      <c r="E177">
+        <v>309.78987000000001</v>
+      </c>
+      <c r="F177">
+        <v>27.511489999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>311.74425000000002</v>
+      </c>
+      <c r="B178">
+        <v>25.474609999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>312.14636000000002</v>
+      </c>
+      <c r="B179">
+        <v>26.07535</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>312.78582</v>
+      </c>
+      <c r="B180">
+        <v>25.042770000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>313.44855000000001</v>
+      </c>
+      <c r="B181">
+        <v>23.836649999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>315.75909999999999</v>
+      </c>
+      <c r="B182">
+        <v>24.331160000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>316.26391000000001</v>
+      </c>
+      <c r="B183">
+        <v>24.227650000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>317.41244999999998</v>
+      </c>
+      <c r="B184">
+        <v>23.51146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>318.49092000000002</v>
+      </c>
+      <c r="B185">
+        <v>22.849019999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>319.13729000000001</v>
+      </c>
+      <c r="B186">
+        <v>20.349609999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>319.41881000000001</v>
+      </c>
+      <c r="B187">
+        <v>20.499749999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>320.51261</v>
+      </c>
+      <c r="B188">
+        <v>20.601579999999998</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>321.60422999999997</v>
+      </c>
+      <c r="B189">
+        <v>20.044779999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>321.88495</v>
+      </c>
+      <c r="B190">
+        <v>20.713190000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>323.45026000000001</v>
+      </c>
+      <c r="B191">
+        <v>20.652819999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>323.87876</v>
+      </c>
+      <c r="B192">
+        <v>18.95853</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>326.67313999999999</v>
+      </c>
+      <c r="B193">
+        <v>18.395160000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>306.75080000000003</v>
+      </c>
+      <c r="B194">
+        <v>28.70251</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>308.07215000000002</v>
+      </c>
+      <c r="B195">
+        <v>28.55134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>309.55354999999997</v>
+      </c>
+      <c r="B196">
+        <v>25.720420000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>310.16424999999998</v>
+      </c>
+      <c r="B197">
+        <v>26.485399999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>311.49000999999998</v>
+      </c>
+      <c r="B198">
+        <v>25.371009999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>313.08701000000002</v>
+      </c>
+      <c r="B199">
+        <v>23.47804</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>313.51665000000003</v>
+      </c>
+      <c r="B200">
+        <v>25.073149999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>314.37781000000001</v>
+      </c>
+      <c r="B201">
+        <v>21.434550000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>314.46737999999999</v>
+      </c>
+      <c r="B202">
+        <v>24.767900000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>315.51769000000002</v>
+      </c>
+      <c r="B203">
+        <v>21.614529999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>316.84568000000002</v>
+      </c>
+      <c r="B204">
+        <v>20.759250000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>317.46735000000001</v>
+      </c>
+      <c r="B205">
+        <v>22.72973</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>318.54867999999999</v>
+      </c>
+      <c r="B206">
+        <v>22.34356</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>319.16183000000001</v>
+      </c>
+      <c r="B207">
+        <v>19.26586</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>319.23250000000002</v>
+      </c>
+      <c r="B208">
+        <v>20.84517</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>320.22374000000002</v>
+      </c>
+      <c r="B209">
+        <v>20.538419999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>321.02857</v>
+      </c>
+      <c r="B210">
+        <v>18.01521</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>323.67498000000001</v>
+      </c>
+      <c r="B211">
+        <v>19.622579999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>323.75394</v>
+      </c>
+      <c r="B212">
+        <v>17.026150000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>323.78294</v>
+      </c>
+      <c r="B213">
+        <v>19.579940000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>324.80916999999999</v>
+      </c>
+      <c r="B214">
+        <v>17.112960000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>326.36538000000002</v>
+      </c>
+      <c r="B215">
+        <v>19.214310000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>327.72717999999998</v>
+      </c>
+      <c r="B216">
+        <v>18.3751</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>328.18975999999998</v>
+      </c>
+      <c r="B217">
+        <v>16.104140000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>331.60090000000002</v>
+      </c>
+      <c r="B218">
+        <v>18.019279999999998</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>333.65868999999998</v>
+      </c>
+      <c r="B219">
+        <v>17.299340000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>336.15848</v>
+      </c>
+      <c r="B220">
+        <v>16.32253</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>336.86417</v>
+      </c>
+      <c r="B221">
+        <v>15.960369999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>337.33470999999997</v>
+      </c>
+      <c r="B222">
+        <v>15.048780000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>342.63477999999998</v>
+      </c>
+      <c r="B223">
+        <v>15.49606</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>346.44900999999999</v>
+      </c>
+      <c r="B224">
+        <v>14.22386</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>332.48077999999998</v>
+      </c>
+      <c r="B225">
+        <v>15.891</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>335.11203</v>
+      </c>
+      <c r="B226">
+        <v>15.77197</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>337.32488000000001</v>
+      </c>
+      <c r="B227">
+        <v>15.674720000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>339.32778000000002</v>
+      </c>
+      <c r="B228">
+        <v>15.20599</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>341.47465999999997</v>
+      </c>
+      <c r="B229">
+        <v>14.80996</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>342.33974000000001</v>
+      </c>
+      <c r="B230">
+        <v>13.87499</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>333.32828999999998</v>
+      </c>
+      <c r="B231">
+        <v>15.059329999999999</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>334.49644999999998</v>
+      </c>
+      <c r="B232">
+        <v>15.67057</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>335.01621999999998</v>
+      </c>
+      <c r="B233">
+        <v>17.067150000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>336.36117000000002</v>
+      </c>
+      <c r="B234">
+        <v>14.813969999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>339.20979</v>
+      </c>
+      <c r="B235">
+        <v>14.71538</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>329.94531999999998</v>
+      </c>
+      <c r="B236">
+        <v>15.229189999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>331.67642999999998</v>
+      </c>
+      <c r="B237">
+        <v>15.10209</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>333.05948000000001</v>
+      </c>
+      <c r="B238">
+        <v>15.003640000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>334.15048999999999</v>
+      </c>
+      <c r="B239">
+        <v>14.494680000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>335.59703999999999</v>
+      </c>
+      <c r="B240">
+        <v>13.830030000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>335.97102000000001</v>
+      </c>
+      <c r="B241">
+        <v>14.004200000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>328.99153999999999</v>
+      </c>
+      <c r="B242">
+        <v>15.38693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>329.80797000000001</v>
+      </c>
+      <c r="B243">
+        <v>15.524710000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>332.62941999999998</v>
+      </c>
+      <c r="B244">
+        <v>15.3599</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>334.51571999999999</v>
+      </c>
+      <c r="B245">
+        <v>14.562620000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>339.77510999999998</v>
+      </c>
+      <c r="B246">
+        <v>12.879949999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>341.42074000000002</v>
+      </c>
+      <c r="B247">
+        <v>12.77427</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>336.26976000000002</v>
+      </c>
+      <c r="B248">
+        <v>16.192360000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>337.01211999999998</v>
+      </c>
+      <c r="B249">
+        <v>16.243300000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>338.27283</v>
+      </c>
+      <c r="B250">
+        <v>15.337429999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>339.60433999999998</v>
+      </c>
+      <c r="B251">
+        <v>14.96871</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>340.85572999999999</v>
+      </c>
+      <c r="B252">
+        <v>14.359909999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>342.71821</v>
+      </c>
+      <c r="B253">
+        <v>14.31692</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>302.60593999999998</v>
+      </c>
+      <c r="B254">
+        <v>26.764659999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>303.20659999999998</v>
+      </c>
+      <c r="B255">
+        <v>25.39893</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>304.89409000000001</v>
+      </c>
+      <c r="B256">
+        <v>24.47072</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>305.13720999999998</v>
+      </c>
+      <c r="B257">
+        <v>24.601929999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>305.71710000000002</v>
+      </c>
+      <c r="B258">
+        <v>24.528199999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>309.05336</v>
+      </c>
+      <c r="B259">
+        <v>23.946739999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>310.98097000000001</v>
+      </c>
+      <c r="B260">
+        <v>23.875769999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>308.87144999999998</v>
+      </c>
+      <c r="B261">
+        <v>24.045100000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>310.89296999999999</v>
+      </c>
+      <c r="B262">
+        <v>22.74098</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>313.26438000000002</v>
+      </c>
+      <c r="B263">
+        <v>22.531459999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>313.65346</v>
+      </c>
+      <c r="B264">
+        <v>21.51172</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>314.37400000000002</v>
+      </c>
+      <c r="B265">
+        <v>20.748840000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>315.84147999999999</v>
+      </c>
+      <c r="B266">
+        <v>20.72044</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>318.67194999999998</v>
+      </c>
+      <c r="B267">
+        <v>20.86673</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>317.73590999999999</v>
+      </c>
+      <c r="B268">
+        <v>20.248539999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>318.83071999999999</v>
+      </c>
+      <c r="B269">
+        <v>19.96011</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>320.95269000000002</v>
+      </c>
+      <c r="B270">
+        <v>19.76831</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>323.75495999999998</v>
+      </c>
+      <c r="B271">
+        <v>19.231449999999999</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>325.42766999999998</v>
+      </c>
+      <c r="B272">
+        <v>18.921939999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>328.22568999999999</v>
+      </c>
+      <c r="B273">
+        <v>18.286010000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>327.49281000000002</v>
+      </c>
+      <c r="B274">
+        <v>18.57563</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>330.72955000000002</v>
+      </c>
+      <c r="B275">
+        <v>18.083909999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>332.66358000000002</v>
+      </c>
+      <c r="B276">
+        <v>17.826239999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>333.90735000000001</v>
+      </c>
+      <c r="B277">
+        <v>18.512879999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>301.44835</v>
+      </c>
+      <c r="B278">
+        <v>24.918410000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>302.40965999999997</v>
+      </c>
+      <c r="B279">
+        <v>23.8095</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>304.92126999999999</v>
+      </c>
+      <c r="B280">
+        <v>23.634</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>305.32843000000003</v>
+      </c>
+      <c r="B281">
+        <v>23.97842</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>306.83850000000001</v>
+      </c>
+      <c r="B282">
+        <v>22.486750000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>309.45245999999997</v>
+      </c>
+      <c r="B283">
+        <v>23.143699999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>310.49712</v>
+      </c>
+      <c r="B284">
+        <v>21.60782</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>311.30797999999999</v>
+      </c>
+      <c r="B285">
+        <v>21.43515</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>312.50567999999998</v>
+      </c>
+      <c r="B286">
+        <v>21.17051</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>313.30119000000002</v>
+      </c>
+      <c r="B287">
+        <v>21.514779999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>315.20415000000003</v>
+      </c>
+      <c r="B288">
+        <v>20.412369999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>315.57684999999998</v>
+      </c>
+      <c r="B289">
+        <v>20.935749999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>316.81009999999998</v>
+      </c>
+      <c r="B290">
+        <v>20.143190000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>318.76882000000001</v>
+      </c>
+      <c r="B291">
+        <v>19.554369999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>319.05727000000002</v>
+      </c>
+      <c r="B292">
+        <v>19.129639999999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>320.35055999999997</v>
+      </c>
+      <c r="B293">
+        <v>19.002469999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>321.86469</v>
+      </c>
+      <c r="B294">
+        <v>18.886970000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>322.11068</v>
+      </c>
+      <c r="B295">
+        <v>18.781870000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>324.37882000000002</v>
+      </c>
+      <c r="B296">
+        <v>18.348890000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>326.77296000000001</v>
+      </c>
+      <c r="B297">
+        <v>18.551870000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>327.26952</v>
+      </c>
+      <c r="B298">
+        <v>18.759889999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>328.29307</v>
+      </c>
+      <c r="B299">
+        <v>17.938500000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>330.85993000000002</v>
+      </c>
+      <c r="B300">
+        <v>16.986149999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>302.97106000000002</v>
+      </c>
+      <c r="B301">
+        <v>23.448309999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>305.17979000000003</v>
+      </c>
+      <c r="B302">
+        <v>22.72071</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>306.13326999999998</v>
+      </c>
+      <c r="B303">
+        <v>22.038329999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>308.75387000000001</v>
+      </c>
+      <c r="B304">
+        <v>21.048960000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>311.06423000000001</v>
+      </c>
+      <c r="B305">
+        <v>20.645379999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>312.50164999999998</v>
+      </c>
+      <c r="B306">
+        <v>20.75028</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>315.93898999999999</v>
+      </c>
+      <c r="B307">
+        <v>20.019659999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>317.60217</v>
+      </c>
+      <c r="B308">
+        <v>19.09722</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>318.48743000000002</v>
+      </c>
+      <c r="B309">
+        <v>19.469840000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>321.29721999999998</v>
+      </c>
+      <c r="B310">
+        <v>18.144970000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>326.30786000000001</v>
+      </c>
+      <c r="B311">
+        <v>17.182929999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>328.24466000000001</v>
+      </c>
+      <c r="B312">
+        <v>16.048490000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>331.34071</v>
+      </c>
+      <c r="B313">
+        <v>15.650790000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>307.63688999999999</v>
+      </c>
+      <c r="B314">
+        <v>22.17897</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>307.56168000000002</v>
+      </c>
+      <c r="B315">
+        <v>22.021100000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>308.21136999999999</v>
+      </c>
+      <c r="B316">
+        <v>20.97026</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>309.02298000000002</v>
+      </c>
+      <c r="B317">
+        <v>21.31024</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>313.64769000000001</v>
+      </c>
+      <c r="B318">
+        <v>20.132400000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>315.32276000000002</v>
+      </c>
+      <c r="B319">
+        <v>19.806010000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>318.62130000000002</v>
+      </c>
+      <c r="B320">
+        <v>19.470859999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>322.00947000000002</v>
+      </c>
+      <c r="B321">
+        <v>19.4786</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>322.23595</v>
+      </c>
+      <c r="B322">
+        <v>18.950220000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>323.47494999999998</v>
+      </c>
+      <c r="B323">
+        <v>18.68009</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>327.91039000000001</v>
+      </c>
+      <c r="B324">
+        <v>18.2334</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>329.89629000000002</v>
+      </c>
+      <c r="B325">
+        <v>16.215229999999998</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>310.29590999999999</v>
+      </c>
+      <c r="B326">
+        <v>20.69688</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>309.26753000000002</v>
+      </c>
+      <c r="B327">
+        <v>20.402380000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>310.61900000000003</v>
+      </c>
+      <c r="B328">
+        <v>19.54081</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>312.25184999999999</v>
+      </c>
+      <c r="B329">
+        <v>19.176079999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>317.08524</v>
+      </c>
+      <c r="B330">
+        <v>18.509419999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>321.35795999999999</v>
+      </c>
+      <c r="B331">
+        <v>18.17465</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>322.16755999999998</v>
+      </c>
+      <c r="B332">
+        <v>17.462759999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>324.63476000000003</v>
+      </c>
+      <c r="B333">
+        <v>16.864049999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>328.39474000000001</v>
+      </c>
+      <c r="B334">
+        <v>17.36176</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>330.94186000000002</v>
+      </c>
+      <c r="B335">
+        <v>16.914449999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>333.97264999999999</v>
+      </c>
+      <c r="B336">
+        <v>15.75667</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>308.40271000000001</v>
+      </c>
+      <c r="B337">
+        <v>20.32855</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>310.35721999999998</v>
+      </c>
+      <c r="B338">
+        <v>19.56953</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>314.21211</v>
+      </c>
+      <c r="B339">
+        <v>19.316929999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>319.39452999999997</v>
+      </c>
+      <c r="B340">
+        <v>18.344249999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>320.22136</v>
+      </c>
+      <c r="B341">
+        <v>17.908190000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>325.01864</v>
+      </c>
+      <c r="B342">
+        <v>17.242319999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>327.87857000000002</v>
+      </c>
+      <c r="B343">
+        <v>16.083839999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>340.18394000000001</v>
+      </c>
+      <c r="B344">
+        <v>15.730449999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>311.08739000000003</v>
+      </c>
+      <c r="B345">
+        <v>20.199909999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>316.01913000000002</v>
+      </c>
+      <c r="B346">
+        <v>19.007349999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>319.67757</v>
+      </c>
+      <c r="B347">
+        <v>18.604679999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>321.5154</v>
+      </c>
+      <c r="B348">
+        <v>18.281379999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>322.5102</v>
+      </c>
+      <c r="B349">
+        <v>18.003039999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>324.12806999999998</v>
+      </c>
+      <c r="B350">
+        <v>17.957070000000002</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>321.82026000000002</v>
+      </c>
+      <c r="B351">
+        <v>17.754110000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>330.77535999999998</v>
+      </c>
+      <c r="B352">
+        <v>17.32301</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>333.15784000000002</v>
+      </c>
+      <c r="B353">
+        <v>17.25506</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>335.72755999999998</v>
+      </c>
+      <c r="B354">
+        <v>15.447520000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>324.26778000000002</v>
+      </c>
+      <c r="B355">
+        <v>17.626329999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>327.61912000000001</v>
+      </c>
+      <c r="B356">
+        <v>17.577929999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>331.05506000000003</v>
+      </c>
+      <c r="B357">
+        <v>16.441880000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>327.43245000000002</v>
+      </c>
+      <c r="B358">
+        <v>17.61553</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>332.19663000000003</v>
+      </c>
+      <c r="B359">
+        <v>15.99014</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>322.88958000000002</v>
+      </c>
+      <c r="B360">
+        <v>17.538049999999998</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>323.67158000000001</v>
+      </c>
+      <c r="B361">
+        <v>16.7364</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>335.03352000000001</v>
+      </c>
+      <c r="B362">
+        <v>16.562000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>337.10804000000002</v>
+      </c>
+      <c r="B363">
+        <v>16.33906</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>341.81029999999998</v>
+      </c>
+      <c r="B364">
+        <v>15.9877</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>346.41879999999998</v>
+      </c>
+      <c r="B365">
+        <v>15.40757</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>351.93054999999998</v>
+      </c>
+      <c r="B366">
+        <v>14.355560000000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>305.48712999999998</v>
+      </c>
+      <c r="B367">
+        <v>26.556480000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>304.49446</v>
+      </c>
+      <c r="B368">
+        <v>27.611899999999999</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>306.90841999999998</v>
+      </c>
+      <c r="B369">
+        <v>26.949159999999999</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>308.96868000000001</v>
+      </c>
+      <c r="B370">
+        <v>26.857589999999998</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>309.8954</v>
+      </c>
+      <c r="B371">
+        <v>25.600359999999998</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>311.72487000000001</v>
+      </c>
+      <c r="B372">
+        <v>25.164570000000001</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>312.79500000000002</v>
+      </c>
+      <c r="B373">
+        <v>24.25422</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>315.47433999999998</v>
+      </c>
+      <c r="B374">
+        <v>23.68741</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>316.22307999999998</v>
+      </c>
+      <c r="B375">
+        <v>23.608470000000001</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>317.51575000000003</v>
+      </c>
+      <c r="B376">
+        <v>23.14058</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>320.33911000000001</v>
+      </c>
+      <c r="B377">
+        <v>22.257169999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>323.07456000000002</v>
+      </c>
+      <c r="B378">
+        <v>21.295909999999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>324.34293000000002</v>
+      </c>
+      <c r="B379">
+        <v>21.26108</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>327.07814999999999</v>
+      </c>
+      <c r="B380">
+        <v>21.1892</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>329.09883000000002</v>
+      </c>
+      <c r="B381">
+        <v>20.400790000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>329.98502000000002</v>
+      </c>
+      <c r="B382">
+        <v>19.40579</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>305.33537000000001</v>
+      </c>
+      <c r="B383">
+        <v>28.02938</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>307.14550000000003</v>
+      </c>
+      <c r="B384">
+        <v>26.598549999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>307.87137999999999</v>
+      </c>
+      <c r="B385">
+        <v>26.55536</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>309.06074000000001</v>
+      </c>
+      <c r="B386">
+        <v>25.705490000000001</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>311.39033000000001</v>
+      </c>
+      <c r="B387">
+        <v>25.55218</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>312.40454999999997</v>
+      </c>
+      <c r="B388">
+        <v>24.521039999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>314.90237999999999</v>
+      </c>
+      <c r="B389">
+        <v>24.134250000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>315.33638000000002</v>
+      </c>
+      <c r="B390">
+        <v>23.728819999999999</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>316.97764000000001</v>
+      </c>
+      <c r="B391">
+        <v>23.412870000000002</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>319.09651000000002</v>
+      </c>
+      <c r="B392">
+        <v>23.013870000000001</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>319.22239000000002</v>
+      </c>
+      <c r="B393">
+        <v>21.59188</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>321.44519000000003</v>
+      </c>
+      <c r="B394">
+        <v>21.60876</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>322.47350999999998</v>
+      </c>
+      <c r="B395">
+        <v>21.362729999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>325.63144999999997</v>
+      </c>
+      <c r="B396">
+        <v>20.170310000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>326.3306</v>
+      </c>
+      <c r="B397">
+        <v>20.038720000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>327.54408000000001</v>
+      </c>
+      <c r="B398">
+        <v>20.045970000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>334.01909000000001</v>
+      </c>
+      <c r="B399">
+        <v>19.134170000000001</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>338.20103999999998</v>
+      </c>
+      <c r="B400">
+        <v>18.366579999999999</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>304.76092</v>
+      </c>
+      <c r="B401">
+        <v>27.88392</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>306.31947000000002</v>
+      </c>
+      <c r="B402">
+        <v>26.656379999999999</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>306.64909</v>
+      </c>
+      <c r="B403">
+        <v>27.18562</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>308.09768000000003</v>
+      </c>
+      <c r="B404">
+        <v>25.633120000000002</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>309.12076999999999</v>
+      </c>
+      <c r="B405">
+        <v>25.78192</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>310.78116999999997</v>
+      </c>
+      <c r="B406">
+        <v>24.620360000000002</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>311.09077000000002</v>
+      </c>
+      <c r="B407">
+        <v>24.298909999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>313.02701000000002</v>
+      </c>
+      <c r="B408">
+        <v>23.22345</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>314.50252999999998</v>
+      </c>
+      <c r="B409">
+        <v>23.381239999999998</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>314.75045</v>
+      </c>
+      <c r="B410">
+        <v>22.010020000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>317.43957999999998</v>
+      </c>
+      <c r="B411">
+        <v>21.95673</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>317.76531</v>
+      </c>
+      <c r="B412">
+        <v>22.17062</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>320.52825999999999</v>
+      </c>
+      <c r="B413">
+        <v>21.95007</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>321.36259000000001</v>
+      </c>
+      <c r="B414">
+        <v>22.09055</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>323.24288000000001</v>
+      </c>
+      <c r="B415">
+        <v>21.482769999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>323.15442000000002</v>
+      </c>
+      <c r="B416">
+        <v>20.969809999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>324.43270999999999</v>
+      </c>
+      <c r="B417">
+        <v>19.932169999999999</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>325.40863000000002</v>
+      </c>
+      <c r="B418">
+        <v>19.903169999999999</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>330.99261000000001</v>
+      </c>
+      <c r="B419">
+        <v>19.57677</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>332.55748999999997</v>
+      </c>
+      <c r="B420">
+        <v>19.63205</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>302.43437</v>
+      </c>
+      <c r="B421">
+        <v>28.928460000000001</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>303.44024000000002</v>
+      </c>
+      <c r="B422">
+        <v>26.977799999999998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>305.04331000000002</v>
+      </c>
+      <c r="B423">
+        <v>27.438680000000002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>305.78287</v>
+      </c>
+      <c r="B424">
+        <v>27.503769999999999</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>307.31225000000001</v>
+      </c>
+      <c r="B425">
+        <v>26.199770000000001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>308.95819</v>
+      </c>
+      <c r="B426">
+        <v>25.6677</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>308.76227</v>
+      </c>
+      <c r="B427">
+        <v>24.453150000000001</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>309.43711000000002</v>
+      </c>
+      <c r="B428">
+        <v>24.708369999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>311.36615</v>
+      </c>
+      <c r="B429">
+        <v>22.521889999999999</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>312.97872999999998</v>
+      </c>
+      <c r="B430">
+        <v>24.163399999999999</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>313.33524999999997</v>
+      </c>
+      <c r="B431">
+        <v>23.25526</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>314.92086999999998</v>
+      </c>
+      <c r="B432">
+        <v>22.488710000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>316.21706999999998</v>
+      </c>
+      <c r="B433">
+        <v>22.017019999999999</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>318.35336999999998</v>
+      </c>
+      <c r="B434">
+        <v>21.825690000000002</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>317.42854999999997</v>
+      </c>
+      <c r="B435">
+        <v>20.949449999999999</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>320.41174000000001</v>
+      </c>
+      <c r="B436">
+        <v>21.104089999999999</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>322.62141000000003</v>
+      </c>
+      <c r="B437">
+        <v>21.886810000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>324.15553999999997</v>
+      </c>
+      <c r="B438">
+        <v>21.19848</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>323.90051</v>
+      </c>
+      <c r="B439">
+        <v>21.0044</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>325.97070000000002</v>
+      </c>
+      <c r="B440">
+        <v>21.004390000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>326.35856999999999</v>
+      </c>
+      <c r="B441">
+        <v>19.539090000000002</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>328.98860999999999</v>
+      </c>
+      <c r="B442">
+        <v>19.15438</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>331.56349999999998</v>
+      </c>
+      <c r="B443">
+        <v>19.489319999999999</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>332.91501</v>
+      </c>
+      <c r="B444">
+        <v>19.54862</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>333.08695999999998</v>
+      </c>
+      <c r="B445">
+        <v>17.58578</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>333.59215</v>
+      </c>
+      <c r="B446">
+        <v>17.214780000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>302.98108999999999</v>
+      </c>
+      <c r="B447">
+        <v>25.34282</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>302.98108999999999</v>
+      </c>
+      <c r="B448">
+        <v>25.34282</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>302.91692</v>
+      </c>
+      <c r="B449">
+        <v>25.145800000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>303.20474999999999</v>
+      </c>
+      <c r="B450">
+        <v>24.319420000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>305.53505999999999</v>
+      </c>
+      <c r="B451">
+        <v>23.400839999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>306.90640000000002</v>
+      </c>
+      <c r="B452">
+        <v>23.34179</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>308.35473000000002</v>
+      </c>
+      <c r="B453">
+        <v>22.311340000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>309.00943000000001</v>
+      </c>
+      <c r="B454">
+        <v>21.567589999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>312.35138000000001</v>
+      </c>
+      <c r="B455">
+        <v>21.753720000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>312.60867999999999</v>
+      </c>
+      <c r="B456">
+        <v>21.74682</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>311.79899</v>
+      </c>
+      <c r="B457">
+        <v>21.254190000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>313.40989000000002</v>
+      </c>
+      <c r="B458">
+        <v>21.189990000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>316.65625</v>
+      </c>
+      <c r="B459">
+        <v>20.56091</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>316.32767000000001</v>
+      </c>
+      <c r="B460">
+        <v>20.02422</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>316.62499000000003</v>
+      </c>
+      <c r="B461">
+        <v>19.625730000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>320.7475</v>
+      </c>
+      <c r="B462">
+        <v>19.22748</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>321.57551999999998</v>
+      </c>
+      <c r="B463">
+        <v>19.111820000000002</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>323.89150999999998</v>
+      </c>
+      <c r="B464">
+        <v>18.345379999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>323.15892000000002</v>
+      </c>
+      <c r="B465">
+        <v>18.286390000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>325.20916999999997</v>
+      </c>
+      <c r="B466">
+        <v>17.518190000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>326.41111000000001</v>
+      </c>
+      <c r="B467">
+        <v>17.34055</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>328.09645999999998</v>
+      </c>
+      <c r="B468">
+        <v>17.625350000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>332.13218000000001</v>
+      </c>
+      <c r="B469">
+        <v>17.34281</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>333.13472000000002</v>
+      </c>
+      <c r="B470">
+        <v>17.570260000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>335.2226</v>
+      </c>
+      <c r="B471">
+        <v>17.200749999999999</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>339.23647999999997</v>
+      </c>
+      <c r="B472">
+        <v>17.02741</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>301.75443000000001</v>
+      </c>
+      <c r="B473">
+        <v>23.78764</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>303.52848</v>
+      </c>
+      <c r="B474">
+        <v>23.04402</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>307.95684</v>
+      </c>
+      <c r="B475">
+        <v>22.82705</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>308.87662999999998</v>
+      </c>
+      <c r="B476">
+        <v>22.844860000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>312.26206999999999</v>
+      </c>
+      <c r="B477">
+        <v>21.57208</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>313.69979000000001</v>
+      </c>
+      <c r="B478">
+        <v>21.195789999999999</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>314.50367</v>
+      </c>
+      <c r="B479">
+        <v>19.99869</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>320.44319000000002</v>
+      </c>
+      <c r="B480">
+        <v>18.97587</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>324.79676000000001</v>
+      </c>
+      <c r="B481">
+        <v>19.216699999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>326.92335000000003</v>
+      </c>
+      <c r="B482">
+        <v>18.18787</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>329.72494999999998</v>
+      </c>
+      <c r="B483">
+        <v>17.939340000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>333.97054000000003</v>
+      </c>
+      <c r="B484">
+        <v>17.070029999999999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>338.18516</v>
+      </c>
+      <c r="B485">
+        <v>16.577729999999999</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>306.24099999999999</v>
+      </c>
+      <c r="B486">
+        <v>23.911210000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>309.12457999999998</v>
+      </c>
+      <c r="B487">
+        <v>22.271999999999998</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>310.79349999999999</v>
+      </c>
+      <c r="B488">
+        <v>21.797419999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>314.51251000000002</v>
+      </c>
+      <c r="B489">
+        <v>20.635259999999999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>319.41975000000002</v>
+      </c>
+      <c r="B490">
+        <v>19.835709999999999</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>325.85093999999998</v>
+      </c>
+      <c r="B491">
+        <v>18.509499999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>329.59829000000002</v>
+      </c>
+      <c r="B492">
+        <v>18.320820000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>332.47460000000001</v>
+      </c>
+      <c r="B493">
+        <v>18.060459999999999</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>337.7106</v>
+      </c>
+      <c r="B494">
+        <v>17.296749999999999</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>308.27469000000002</v>
+      </c>
+      <c r="B495">
+        <v>23.308720000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>312.90874000000002</v>
+      </c>
+      <c r="B496">
+        <v>21.905100000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>313.37741999999997</v>
+      </c>
+      <c r="B497">
+        <v>21.32422</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>314.16005000000001</v>
+      </c>
+      <c r="B498">
+        <v>21.000360000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>317.20276999999999</v>
+      </c>
+      <c r="B499">
+        <v>19.507459999999998</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>320.42912000000001</v>
+      </c>
+      <c r="B500">
+        <v>18.736910000000002</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>324.17412000000002</v>
+      </c>
+      <c r="B501">
+        <v>18.488099999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>329.39598999999998</v>
+      </c>
+      <c r="B502">
+        <v>17.662859999999998</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>331.16136999999998</v>
+      </c>
+      <c r="B503">
+        <v>17.023689999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>305.66174999999998</v>
+      </c>
+      <c r="B504">
+        <v>23.033249999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>307.71494000000001</v>
+      </c>
+      <c r="B505">
+        <v>22.042870000000001</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>309.81029999999998</v>
+      </c>
+      <c r="B506">
+        <v>21.200890000000001</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>312.51893999999999</v>
+      </c>
+      <c r="B507">
+        <v>20.102150000000002</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>315.26400999999998</v>
+      </c>
+      <c r="B508">
+        <v>20.685770000000002</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>318.37646000000001</v>
+      </c>
+      <c r="B509">
+        <v>19.937139999999999</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>329.41811999999999</v>
+      </c>
+      <c r="B510">
+        <v>17.942979999999999</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>308.20371</v>
+      </c>
+      <c r="B511">
+        <v>21.31044</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>312.78730000000002</v>
+      </c>
+      <c r="B512">
+        <v>20.015070000000001</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>318.64758</v>
+      </c>
+      <c r="B513">
+        <v>18.84506</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>320.09822000000003</v>
+      </c>
+      <c r="B514">
+        <v>19.322590000000002</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>323.85147999999998</v>
+      </c>
+      <c r="B515">
+        <v>18.834199999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>324.32454999999999</v>
+      </c>
+      <c r="B516">
+        <v>18.541370000000001</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>328.74178999999998</v>
+      </c>
+      <c r="B517">
+        <v>17.41872</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>331.97780999999998</v>
+      </c>
+      <c r="B518">
+        <v>16.42596</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>336.66417999999999</v>
+      </c>
+      <c r="B519">
+        <v>15.39575</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>337.20866000000001</v>
+      </c>
+      <c r="B520">
+        <v>16.232320000000001</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>319.33989000000003</v>
+      </c>
+      <c r="B521">
+        <v>20.045159999999999</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>319.91077000000001</v>
+      </c>
+      <c r="B522">
+        <v>18.06598</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>328.69245000000001</v>
+      </c>
+      <c r="B523">
+        <v>17.548100000000002</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>333.15775000000002</v>
+      </c>
+      <c r="B524">
+        <v>16.486529999999998</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>321.30592999999999</v>
+      </c>
+      <c r="B525">
+        <v>17.72569</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>331.38594999999998</v>
+      </c>
+      <c r="B526">
+        <v>16.908300000000001</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>340.67867999999999</v>
+      </c>
+      <c r="B527">
+        <v>16.14536</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>318.13103999999998</v>
+      </c>
+      <c r="B528">
+        <v>18.413699999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>325.23644999999999</v>
+      </c>
+      <c r="B529">
+        <v>18.277349999999998</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>325.72572000000002</v>
+      </c>
+      <c r="B530">
+        <v>17.489229999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>330.64523000000003</v>
+      </c>
+      <c r="B531">
+        <v>16.668019999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>333.69747999999998</v>
+      </c>
+      <c r="B532">
+        <v>16.019269999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>335.70812000000001</v>
+      </c>
+      <c r="B533">
+        <v>15.85469</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>340.32601</v>
+      </c>
+      <c r="B534">
+        <v>15.15502</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>348.43605000000002</v>
+      </c>
+      <c r="B535">
+        <v>15.54317</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>351.33702</v>
+      </c>
+      <c r="B536">
+        <v>14.78809</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>302.84949</v>
+      </c>
+      <c r="B537">
+        <v>29.601019999999998</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>303.97753</v>
+      </c>
+      <c r="B538">
+        <v>28.951809999999998</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>305.12331</v>
+      </c>
+      <c r="B539">
+        <v>28.579809999999998</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>314.68565999999998</v>
+      </c>
+      <c r="B540">
+        <v>23.285959999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>301.15919000000002</v>
+      </c>
+      <c r="B541">
+        <v>28.713609999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>303.55849999999998</v>
+      </c>
+      <c r="B542">
+        <v>28.498670000000001</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>305.34127999999998</v>
+      </c>
+      <c r="B543">
+        <v>28.012329999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>306.04888999999997</v>
+      </c>
+      <c r="B544">
+        <v>26.566600000000001</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>306.76646</v>
+      </c>
+      <c r="B545">
+        <v>26.12574</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>307.89479999999998</v>
+      </c>
+      <c r="B546">
+        <v>25.575589999999998</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>308.82454999999999</v>
+      </c>
+      <c r="B547">
+        <v>25.029969999999999</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>311.47725000000003</v>
+      </c>
+      <c r="B548">
+        <v>24.483820000000001</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>314.21028000000001</v>
+      </c>
+      <c r="B549">
+        <v>23.712959999999999</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>315.80185999999998</v>
+      </c>
+      <c r="B550">
+        <v>22.705369999999998</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>318.02499999999998</v>
+      </c>
+      <c r="B551">
+        <v>21.89847</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>321.56810000000002</v>
+      </c>
+      <c r="B552">
+        <v>21.422910000000002</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>323.12911000000003</v>
+      </c>
+      <c r="B553">
+        <v>20.887119999999999</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>302.11014</v>
+      </c>
+      <c r="B554">
+        <v>28.3964</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>302.02843999999999</v>
+      </c>
+      <c r="B555">
+        <v>27.258320000000001</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>303.69099</v>
+      </c>
+      <c r="B556">
+        <v>26.523720000000001</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>304.00366000000002</v>
+      </c>
+      <c r="B557">
+        <v>25.73263</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>306.17421999999999</v>
+      </c>
+      <c r="B558">
+        <v>24.60951</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>307.27568000000002</v>
+      </c>
+      <c r="B559">
+        <v>23.632359999999998</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>308.22442000000001</v>
+      </c>
+      <c r="B560">
+        <v>23.486350000000002</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>309.63995999999997</v>
+      </c>
+      <c r="B561">
+        <v>23.446090000000002</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>311.00425000000001</v>
+      </c>
+      <c r="B562">
+        <v>23.136980000000001</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>312.95206000000002</v>
+      </c>
+      <c r="B563">
+        <v>23.977609999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>313.24533000000002</v>
+      </c>
+      <c r="B564">
+        <v>23.081309999999998</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>315.84143</v>
+      </c>
+      <c r="B565">
+        <v>21.99137</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>317.90465</v>
+      </c>
+      <c r="B566">
+        <v>21.341719999999999</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>320.80628999999999</v>
+      </c>
+      <c r="B567">
+        <v>21.272639999999999</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>327.59329000000002</v>
+      </c>
+      <c r="B568">
+        <v>19.208020000000001</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>332.93729999999999</v>
+      </c>
+      <c r="B569">
+        <v>18.497630000000001</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>301.84332000000001</v>
+      </c>
+      <c r="B570">
+        <v>27.553799999999999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>302.69274999999999</v>
+      </c>
+      <c r="B571">
+        <v>27.344750000000001</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>304.06630000000001</v>
+      </c>
+      <c r="B572">
+        <v>26.49521</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>305.63502</v>
+      </c>
+      <c r="B573">
+        <v>25.489889999999999</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>305.63666999999998</v>
+      </c>
+      <c r="B574">
+        <v>24.683579999999999</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>308.40026</v>
+      </c>
+      <c r="B575">
+        <v>24.22043</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>307.91180000000003</v>
+      </c>
+      <c r="B576">
+        <v>22.628630000000001</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>310.30799000000002</v>
+      </c>
+      <c r="B577">
+        <v>23.169070000000001</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>311.77936</v>
+      </c>
+      <c r="B578">
+        <v>23.685009999999998</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>312.76459999999997</v>
+      </c>
+      <c r="B579">
+        <v>22.82601</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>313.90634</v>
+      </c>
+      <c r="B580">
+        <v>21.90137</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>316.34643</v>
+      </c>
+      <c r="B581">
+        <v>21.612539999999999</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>318.26251000000002</v>
+      </c>
+      <c r="B582">
+        <v>21.43432</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>319.58541000000002</v>
+      </c>
+      <c r="B583">
+        <v>21.646249999999998</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>324.73471999999998</v>
+      </c>
+      <c r="B584">
+        <v>19.381499999999999</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>330.95443999999998</v>
+      </c>
+      <c r="B585">
+        <v>18.74295</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>339.14634999999998</v>
+      </c>
+      <c r="B586">
+        <v>16.503240000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>345.10034000000002</v>
+      </c>
+      <c r="B587">
+        <v>15.82437</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>300.88499999999999</v>
+      </c>
+      <c r="B588">
+        <v>26.626460000000002</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>301.49146000000002</v>
+      </c>
+      <c r="B589">
+        <v>25.968630000000001</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>302.22913</v>
+      </c>
+      <c r="B590">
+        <v>25.962119999999999</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>305.03147999999999</v>
+      </c>
+      <c r="B591">
+        <v>25.739979999999999</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>305.16356999999999</v>
+      </c>
+      <c r="B592">
+        <v>25.147629999999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>305.64755000000002</v>
+      </c>
+      <c r="B593">
+        <v>23.62134</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>306.60174000000001</v>
+      </c>
+      <c r="B594">
+        <v>23.148510000000002</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>308.20760999999999</v>
+      </c>
+      <c r="B595">
+        <v>21.008099999999999</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>309.67000999999999</v>
+      </c>
+      <c r="B596">
+        <v>22.260149999999999</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>312.88400000000001</v>
+      </c>
+      <c r="B597">
+        <v>19.258099999999999</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>314.68299999999999</v>
+      </c>
+      <c r="B598">
+        <v>18.542819999999999</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>316.49757</v>
+      </c>
+      <c r="B599">
+        <v>20.143920000000001</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>318.95443999999998</v>
+      </c>
+      <c r="B600">
+        <v>21.003920000000001</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>319.28147999999999</v>
+      </c>
+      <c r="B601">
+        <v>21.8325</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>320.88082000000003</v>
+      </c>
+      <c r="B602">
+        <v>19.403300000000002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>322.23271</v>
+      </c>
+      <c r="B603">
+        <v>16.586569999999998</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>322.63306999999998</v>
+      </c>
+      <c r="B604">
+        <v>19.783169999999998</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>323.17948999999999</v>
+      </c>
+      <c r="B605">
+        <v>17.242609999999999</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>325.70546999999999</v>
+      </c>
+      <c r="B606">
+        <v>18.884889999999999</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>332.32494000000003</v>
+      </c>
+      <c r="B607">
+        <v>15.44312</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>334.18988000000002</v>
+      </c>
+      <c r="B608">
+        <v>16.45993</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>335.91032999999999</v>
+      </c>
+      <c r="B609">
+        <v>14.67066</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>302.73248000000001</v>
+      </c>
+      <c r="B610">
+        <v>25.174759999999999</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>303.10951</v>
+      </c>
+      <c r="B611">
+        <v>24.865200000000002</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>303.46193</v>
+      </c>
+      <c r="B612">
+        <v>23.712409999999998</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>304.45591999999999</v>
+      </c>
+      <c r="B613">
+        <v>23.911799999999999</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>306.19625000000002</v>
+      </c>
+      <c r="B614">
+        <v>23.680520000000001</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>306.96561000000003</v>
+      </c>
+      <c r="B615">
+        <v>22.588159999999998</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>307.36804999999998</v>
+      </c>
+      <c r="B616">
+        <v>22.941120000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>308.37430000000001</v>
+      </c>
+      <c r="B617">
+        <v>23.175470000000001</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>311.07688000000002</v>
+      </c>
+      <c r="B618">
+        <v>21.353110000000001</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>312.95299</v>
+      </c>
+      <c r="B619">
+        <v>20.336390000000002</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>313.51938999999999</v>
+      </c>
+      <c r="B620">
+        <v>20.644950000000001</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>315.94600000000003</v>
+      </c>
+      <c r="B621">
+        <v>20.408010000000001</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>316.34217999999998</v>
+      </c>
+      <c r="B622">
+        <v>18.447590000000002</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>316.78546</v>
+      </c>
+      <c r="B623">
+        <v>19.356369999999998</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>317.84863000000001</v>
+      </c>
+      <c r="B624">
+        <v>17.35791</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>321.99349999999998</v>
+      </c>
+      <c r="B625">
+        <v>17.804169999999999</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>322.26114999999999</v>
+      </c>
+      <c r="B626">
+        <v>16.37396</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>322.46136000000001</v>
+      </c>
+      <c r="B627">
+        <v>16.632249999999999</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>323.65444000000002</v>
+      </c>
+      <c r="B628">
+        <v>16.188800000000001</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>324.57711</v>
+      </c>
+      <c r="B629">
+        <v>17.518979999999999</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>327.58416999999997</v>
+      </c>
+      <c r="B630">
+        <v>16.684889999999999</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>326.49747000000002</v>
+      </c>
+      <c r="B631">
+        <v>16.809640000000002</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>303.58546999999999</v>
+      </c>
+      <c r="B632">
+        <v>22.60793</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>304.34922</v>
+      </c>
+      <c r="B633">
+        <v>21.523070000000001</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>305.37142999999998</v>
+      </c>
+      <c r="B634">
+        <v>21.130289999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>307.65888999999999</v>
+      </c>
+      <c r="B635">
+        <v>21.753869999999999</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>310.37864000000002</v>
+      </c>
+      <c r="B636">
+        <v>20.563099999999999</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>311.07747000000001</v>
+      </c>
+      <c r="B637">
+        <v>21.607230000000001</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>312.32749999999999</v>
+      </c>
+      <c r="B638">
+        <v>20.00985</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>313.26146</v>
+      </c>
+      <c r="B639">
+        <v>18.040109999999999</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>319.34983</v>
+      </c>
+      <c r="B640">
+        <v>17.763020000000001</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>318.77041000000003</v>
+      </c>
+      <c r="B641">
+        <v>16.984220000000001</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>316.10453999999999</v>
+      </c>
+      <c r="B642">
+        <v>18.340109999999999</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>331.17784</v>
+      </c>
+      <c r="B643">
+        <v>17.786470000000001</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>325.26217000000003</v>
+      </c>
+      <c r="B644">
+        <v>18.032029999999999</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>331.27086000000003</v>
+      </c>
+      <c r="B645">
+        <v>15.19683</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>304.91813000000002</v>
+      </c>
+      <c r="B646">
+        <v>22.826499999999999</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>309.80678999999998</v>
+      </c>
+      <c r="B647">
+        <v>21.481459999999998</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>311.17523999999997</v>
+      </c>
+      <c r="B648">
+        <v>20.830020000000001</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>314.06932</v>
+      </c>
+      <c r="B649">
+        <v>19.409690000000001</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>317.91662000000002</v>
+      </c>
+      <c r="B650">
+        <v>19.246079999999999</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>320.89848000000001</v>
+      </c>
+      <c r="B651">
+        <v>19.012239999999998</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>324.85791999999998</v>
+      </c>
+      <c r="B652">
+        <v>18.208159999999999</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>328.07900999999998</v>
+      </c>
+      <c r="B653">
+        <v>18.251950000000001</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>332.60431</v>
+      </c>
+      <c r="B654">
+        <v>15.77698</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>305.12396000000001</v>
+      </c>
+      <c r="B655">
+        <v>20.33353</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>306.59822000000003</v>
+      </c>
+      <c r="B656">
+        <v>21.12499</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>308.16806000000003</v>
+      </c>
+      <c r="B657">
+        <v>18.80761</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>307.90915999999999</v>
+      </c>
+      <c r="B658">
+        <v>18.956130000000002</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>308.40731</v>
+      </c>
+      <c r="B659">
+        <v>20.731909999999999</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>312.93628999999999</v>
+      </c>
+      <c r="B660">
+        <v>18.08145</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>314.54376999999999</v>
+      </c>
+      <c r="B661">
+        <v>19.089970000000001</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>316.15197999999998</v>
+      </c>
+      <c r="B662">
+        <v>18.307950000000002</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>317.66865000000001</v>
+      </c>
+      <c r="B663">
+        <v>18.833629999999999</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>322.81045999999998</v>
+      </c>
+      <c r="B664">
+        <v>16.72071</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>324.29615999999999</v>
+      </c>
+      <c r="B665">
+        <v>14.873620000000001</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>325.56599999999997</v>
+      </c>
+      <c r="B666">
+        <v>16.213799999999999</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>330.44362000000001</v>
+      </c>
+      <c r="B667">
+        <v>15.41492</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>311.78143</v>
+      </c>
+      <c r="B668">
+        <v>21.634039999999999</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>313.89447000000001</v>
+      </c>
+      <c r="B669">
+        <v>21.56925</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>314.07785000000001</v>
+      </c>
+      <c r="B670">
+        <v>20.745239999999999</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>316.02992</v>
+      </c>
+      <c r="B671">
+        <v>18.590720000000001</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>316.44644</v>
+      </c>
+      <c r="B672">
+        <v>20.592079999999999</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>321.18838</v>
+      </c>
+      <c r="B673">
+        <v>16.62668</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>322.45571999999999</v>
+      </c>
+      <c r="B674">
+        <v>15.92878</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>323.21012000000002</v>
+      </c>
+      <c r="B675">
+        <v>18.37921</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>325.08537999999999</v>
+      </c>
+      <c r="B676">
+        <v>15.714040000000001</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>328.54834</v>
+      </c>
+      <c r="B677">
+        <v>17.329910000000002</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>310.66958</v>
+      </c>
+      <c r="B678">
+        <v>20.237739999999999</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>315.88783000000001</v>
+      </c>
+      <c r="B679">
+        <v>19.105139999999999</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>316.35968000000003</v>
+      </c>
+      <c r="B680">
+        <v>18.910640000000001</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>317.07121000000001</v>
+      </c>
+      <c r="B681">
+        <v>18.455449999999999</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>317.54716999999999</v>
+      </c>
+      <c r="B682">
+        <v>18.581379999999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>320.98361999999997</v>
+      </c>
+      <c r="B683">
+        <v>16.57704</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>321.10232999999999</v>
+      </c>
+      <c r="B684">
+        <v>16.803070000000002</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>322.39362</v>
+      </c>
+      <c r="B685">
+        <v>17.00018</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>322.12007</v>
+      </c>
+      <c r="B686">
+        <v>16.859670000000001</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>325.24849999999998</v>
+      </c>
+      <c r="B687">
+        <v>15.412660000000001</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>326.37063000000001</v>
+      </c>
+      <c r="B688">
+        <v>15.41865</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>332.04183999999998</v>
+      </c>
+      <c r="B689">
+        <v>15.21637</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>324.09726999999998</v>
+      </c>
+      <c r="B690">
+        <v>17.980899999999998</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>324.84593999999998</v>
+      </c>
+      <c r="B691">
+        <v>17.612539999999999</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>325.41091999999998</v>
+      </c>
+      <c r="B692">
+        <v>17.173259999999999</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>327.40472</v>
+      </c>
+      <c r="B693">
+        <v>17.091139999999999</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>325.00209999999998</v>
+      </c>
+      <c r="B694">
+        <v>16.413979999999999</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>335.00423000000001</v>
+      </c>
+      <c r="B695">
+        <v>15.90541</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>337.49725999999998</v>
+      </c>
+      <c r="B696">
+        <v>15.55139</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>303.02075000000002</v>
+      </c>
+      <c r="B697">
+        <v>28.413699999999999</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>304.84708000000001</v>
+      </c>
+      <c r="B698">
+        <v>27.12839</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>306.90255000000002</v>
+      </c>
+      <c r="B699">
+        <v>27.00854</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>307.02017000000001</v>
+      </c>
+      <c r="B700">
+        <v>26.412579999999998</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>308.35124000000002</v>
+      </c>
+      <c r="B701">
+        <v>26.52815</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>310.19468999999998</v>
+      </c>
+      <c r="B702">
+        <v>23.846399999999999</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>311.78642000000002</v>
+      </c>
+      <c r="B703">
+        <v>23.454170000000001</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>313.52992</v>
+      </c>
+      <c r="B704">
+        <v>22.782710000000002</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>314.91451000000001</v>
+      </c>
+      <c r="B705">
+        <v>22.916879999999999</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>317.43869000000001</v>
+      </c>
+      <c r="B706">
+        <v>22.100020000000001</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>328.32112999999998</v>
+      </c>
+      <c r="B707">
+        <v>19.025030000000001</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>330.76298000000003</v>
+      </c>
+      <c r="B708">
+        <v>18.744330000000001</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>332.27704999999997</v>
+      </c>
+      <c r="B709">
+        <v>18.121099999999998</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>303.60825</v>
+      </c>
+      <c r="B710">
+        <v>27.69369</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>306.29475000000002</v>
+      </c>
+      <c r="B711">
+        <v>25.481649999999998</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>306.93594000000002</v>
+      </c>
+      <c r="B712">
+        <v>24.62548</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>308.56831</v>
+      </c>
+      <c r="B713">
+        <v>24.50253</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>309.38796000000002</v>
+      </c>
+      <c r="B714">
+        <v>24.262930000000001</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>311.08771000000002</v>
+      </c>
+      <c r="B715">
+        <v>24.060590000000001</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>338.39812999999998</v>
+      </c>
+      <c r="B716">
+        <v>16.488630000000001</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>303.59512999999998</v>
+      </c>
+      <c r="B717">
+        <v>28.406330000000001</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>304.20675999999997</v>
+      </c>
+      <c r="B718">
+        <v>28.01803</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>305.51670000000001</v>
+      </c>
+      <c r="B719">
+        <v>26.104590000000002</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>305.86039</v>
+      </c>
+      <c r="B720">
+        <v>25.6661</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>308.10386999999997</v>
+      </c>
+      <c r="B721">
+        <v>22.576809999999998</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>308.06547999999998</v>
+      </c>
+      <c r="B722">
+        <v>24.637160000000002</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>311.04642999999999</v>
+      </c>
+      <c r="B723">
+        <v>22.985340000000001</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>310.32709</v>
+      </c>
+      <c r="B724">
+        <v>22.48687</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>312.76065</v>
+      </c>
+      <c r="B725">
+        <v>22.98001</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>312.86047000000002</v>
+      </c>
+      <c r="B726">
+        <v>21.819600000000001</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>315.50013999999999</v>
+      </c>
+      <c r="B727">
+        <v>21.40774</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>317.35638999999998</v>
+      </c>
+      <c r="B728">
+        <v>20.403849999999998</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>318.12396999999999</v>
+      </c>
+      <c r="B729">
+        <v>20.999169999999999</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>319.14260000000002</v>
+      </c>
+      <c r="B730">
+        <v>21.342669999999998</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>320.89454000000001</v>
+      </c>
+      <c r="B731">
+        <v>19.6403</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>323.89013</v>
+      </c>
+      <c r="B732">
+        <v>18.497620000000001</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>327.12407000000002</v>
+      </c>
+      <c r="B733">
+        <v>18.063230000000001</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>327.35527999999999</v>
+      </c>
+      <c r="B734">
+        <v>18.005030000000001</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>328.11250999999999</v>
+      </c>
+      <c r="B735">
+        <v>17.493790000000001</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>332.20639999999997</v>
+      </c>
+      <c r="B736">
+        <v>15.75544</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A737">
+        <v>300.73773</v>
+      </c>
+      <c r="B737">
+        <v>26.488949999999999</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A738">
+        <v>302.43902000000003</v>
+      </c>
+      <c r="B738">
+        <v>26.084669999999999</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A739">
+        <v>303.95841000000001</v>
+      </c>
+      <c r="B739">
+        <v>25.245719999999999</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A740">
+        <v>305.41755999999998</v>
+      </c>
+      <c r="B740">
+        <v>25.670839999999998</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A741">
+        <v>306.63256000000001</v>
+      </c>
+      <c r="B741">
+        <v>26.38993</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A742">
+        <v>309.08190000000002</v>
+      </c>
+      <c r="B742">
+        <v>22.981459999999998</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A743">
+        <v>308.44943999999998</v>
+      </c>
+      <c r="B743">
+        <v>22.70158</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A744">
+        <v>310.98129</v>
+      </c>
+      <c r="B744">
+        <v>21.375979999999998</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A745">
+        <v>314.38389000000001</v>
+      </c>
+      <c r="B745">
+        <v>21.47531</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A746">
+        <v>313.03780999999998</v>
+      </c>
+      <c r="B746">
+        <v>21.616610000000001</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A747">
+        <v>314.54435999999998</v>
+      </c>
+      <c r="B747">
+        <v>21.760639999999999</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A748">
+        <v>315.02963</v>
+      </c>
+      <c r="B748">
+        <v>21.377469999999999</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A749">
+        <v>317.81047999999998</v>
+      </c>
+      <c r="B749">
+        <v>19.778510000000001</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A750">
+        <v>319.57130000000001</v>
+      </c>
+      <c r="B750">
+        <v>18.735620000000001</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A751">
+        <v>318.84016000000003</v>
+      </c>
+      <c r="B751">
+        <v>19.605989999999998</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A752">
+        <v>320.20335</v>
+      </c>
+      <c r="B752">
+        <v>18.487279999999998</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A753">
+        <v>321.61214999999999</v>
+      </c>
+      <c r="B753">
+        <v>19.85773</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A754">
+        <v>322.07371999999998</v>
+      </c>
+      <c r="B754">
+        <v>19.337900000000001</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A755">
+        <v>322.78118999999998</v>
+      </c>
+      <c r="B755">
+        <v>17.680219999999998</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A756">
+        <v>325.72847999999999</v>
+      </c>
+      <c r="B756">
+        <v>18.94181</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A757">
+        <v>326.37815999999998</v>
+      </c>
+      <c r="B757">
+        <v>17.59609</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A758">
+        <v>329.02136999999999</v>
+      </c>
+      <c r="B758">
+        <v>18.851870000000002</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A759">
+        <v>333.87644999999998</v>
+      </c>
+      <c r="B759">
+        <v>18.18693</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A760">
+        <v>341.03922</v>
+      </c>
+      <c r="B760">
+        <v>15.05627</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A761">
+        <v>330.59449000000001</v>
+      </c>
+      <c r="B761">
+        <v>18.394839999999999</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A762">
+        <v>339.23181</v>
+      </c>
+      <c r="B762">
+        <v>15.86356</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A763">
+        <v>340.05151000000001</v>
+      </c>
+      <c r="B763">
+        <v>15.01412</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A764">
+        <v>342.71803</v>
+      </c>
+      <c r="B764">
+        <v>14.331659999999999</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A765">
+        <v>342.81914</v>
+      </c>
+      <c r="B765">
+        <v>14.22209</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A766">
+        <v>342.81914</v>
+      </c>
+      <c r="B766">
+        <v>14.02209</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A767">
+        <v>330.72469000000001</v>
+      </c>
+      <c r="B767">
+        <v>14.47878</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A768">
+        <v>333.04018000000002</v>
+      </c>
+      <c r="B768">
+        <v>14.131460000000001</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A769">
+        <v>333.99950999999999</v>
+      </c>
+      <c r="B769">
+        <v>14.108449999999999</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A770">
+        <v>335.66226999999998</v>
+      </c>
+      <c r="B770">
+        <v>13.790940000000001</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A771">
+        <v>340.14111000000003</v>
+      </c>
+      <c r="B771">
+        <v>14.99109</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A772">
+        <v>345.58303999999998</v>
+      </c>
+      <c r="B772">
+        <v>15.04006</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A773">
+        <v>347.07222999999999</v>
+      </c>
+      <c r="B773">
+        <v>14.77398</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A774">
+        <v>351.33911999999998</v>
+      </c>
+      <c r="B774">
+        <v>14.301880000000001</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A775">
+        <v>351.79703000000001</v>
+      </c>
+      <c r="B775">
+        <v>13.316660000000001</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A776">
+        <v>352.27760000000001</v>
+      </c>
+      <c r="B776">
+        <v>14.145490000000001</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A777">
+        <v>352.47534000000002</v>
+      </c>
+      <c r="B777">
+        <v>12.84578</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A778">
+        <v>353.90557000000001</v>
+      </c>
+      <c r="B778">
+        <v>14.22348</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>339.88092999999998</v>
+      </c>
+      <c r="B779">
+        <v>14.861649999999999</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>340.44477000000001</v>
+      </c>
+      <c r="B780">
+        <v>14.752890000000001</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>340.81545999999997</v>
+      </c>
+      <c r="B781">
+        <v>14.5684</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>342.04117000000002</v>
+      </c>
+      <c r="B782">
+        <v>14.514189999999999</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>342.18299000000002</v>
+      </c>
+      <c r="B783">
+        <v>14.334339999999999</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>342.32384999999999</v>
+      </c>
+      <c r="B784">
+        <v>14.321400000000001</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>345.37056999999999</v>
+      </c>
+      <c r="B785">
+        <v>14.20722</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>347.73890999999998</v>
+      </c>
+      <c r="B786">
+        <v>14.1046</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>354.51361000000003</v>
+      </c>
+      <c r="B787">
+        <v>14.05217</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>338.86675000000002</v>
+      </c>
+      <c r="B788">
+        <v>14.626150000000001</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>340.98200000000003</v>
+      </c>
+      <c r="B789">
+        <v>14.53177</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>341.46755000000002</v>
+      </c>
+      <c r="B790">
+        <v>14.382070000000001</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>343.63920000000002</v>
+      </c>
+      <c r="B791">
+        <v>13.92465</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>344.06196</v>
+      </c>
+      <c r="B792">
+        <v>13.822290000000001</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>344.66291000000001</v>
+      </c>
+      <c r="B793">
+        <v>13.707700000000001</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>346.90269000000001</v>
+      </c>
+      <c r="B794">
+        <v>13.471439999999999</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>345.46113000000003</v>
+      </c>
+      <c r="B795">
+        <v>14.95627</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>351.03890000000001</v>
+      </c>
+      <c r="B796">
+        <v>14.90875</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>353.48835000000003</v>
+      </c>
+      <c r="B797">
+        <v>14.86018</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>355.61966999999999</v>
+      </c>
+      <c r="B799">
+        <v>14.378740000000001</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>358.28304000000003</v>
+      </c>
+      <c r="B800">
+        <v>13.97212</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>360.88440000000003</v>
+      </c>
+      <c r="B801">
+        <v>13.757529999999999</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>380.14551999999998</v>
+      </c>
+      <c r="B807">
+        <v>12.36712</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>340.00295999999997</v>
+      </c>
+      <c r="B808">
+        <v>15.33333</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>344.20533</v>
+      </c>
+      <c r="B809">
+        <v>14.791219999999999</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>346.55264</v>
+      </c>
+      <c r="B810">
+        <v>14.65649</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>347.44673</v>
+      </c>
+      <c r="B811">
+        <v>14.635490000000001</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>351.33118000000002</v>
+      </c>
+      <c r="B812">
+        <v>14.127610000000001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>351.83474000000001</v>
+      </c>
+      <c r="B813">
+        <v>13.43364</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>360.82522</v>
+      </c>
+      <c r="B814">
+        <v>13.633150000000001</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>375.86470000000003</v>
+      </c>
+      <c r="B816">
+        <v>13.55204</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>380.69150000000002</v>
+      </c>
+      <c r="B817">
+        <v>12.483409999999999</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>309.54138</v>
+      </c>
+      <c r="B818">
+        <v>26.271840000000001</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>307.29025000000001</v>
+      </c>
+      <c r="B819">
+        <v>27.287310000000002</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>305.83938999999998</v>
+      </c>
+      <c r="B820">
+        <v>28.93806</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>321.20177999999999</v>
+      </c>
+      <c r="B821">
+        <v>20.926500000000001</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>313.24331000000001</v>
+      </c>
+      <c r="B822">
+        <v>21.578240000000001</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>321.04874999999998</v>
+      </c>
+      <c r="B823">
+        <v>20.593979999999998</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>321.04874999999998</v>
+      </c>
+      <c r="B824">
+        <v>20.593979999999998</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>325.86653000000001</v>
+      </c>
+      <c r="B825">
+        <v>16.477340000000002</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>336.32945999999998</v>
+      </c>
+      <c r="B826">
+        <v>16.884709999999998</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>321.76611000000003</v>
+      </c>
+      <c r="B827">
+        <v>20.796479999999999</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>306.22924999999998</v>
+      </c>
+      <c r="B828">
+        <v>29.56654</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>306.21375</v>
+      </c>
+      <c r="B829">
+        <v>29.560300000000002</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>321.61187999999999</v>
+      </c>
+      <c r="B830">
+        <v>20.7819</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>307.42392000000001</v>
+      </c>
+      <c r="B831">
+        <v>29.79447</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>307.29253</v>
+      </c>
+      <c r="B832">
+        <v>27.830539999999999</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>307.27373999999998</v>
+      </c>
+      <c r="B833">
+        <v>27.764340000000001</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>312.61442</v>
+      </c>
+      <c r="B834">
+        <v>22.115480000000002</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>335.51091000000002</v>
+      </c>
+      <c r="B835">
+        <v>16.987680000000001</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>328.81630000000001</v>
+      </c>
+      <c r="B836">
+        <v>16.99811</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>396.29252000000002</v>
+      </c>
+      <c r="B837">
+        <v>11.844390000000001</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>310.62428</v>
+      </c>
+      <c r="B838">
+        <v>24.78192</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>313.28451000000001</v>
+      </c>
+      <c r="B839">
+        <v>22.493729999999999</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>326.80723999999998</v>
+      </c>
+      <c r="B840">
+        <v>16.996970000000001</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>320.34573</v>
+      </c>
+      <c r="B841">
+        <v>20.275780000000001</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>326.41372999999999</v>
+      </c>
+      <c r="B842">
+        <v>18.887910000000002</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>336.30851999999999</v>
+      </c>
+      <c r="B843">
+        <v>17.43946</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>323.36655999999999</v>
+      </c>
+      <c r="B844">
+        <v>16.495609999999999</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>333.39067999999997</v>
+      </c>
+      <c r="B845">
+        <v>16.149920000000002</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>331.09843999999998</v>
+      </c>
+      <c r="B846">
+        <v>17.381060000000002</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>342.21578</v>
+      </c>
+      <c r="B847">
+        <v>15.75079</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>338.19287000000003</v>
+      </c>
+      <c r="B848">
+        <v>17.851939999999999</v>
+      </c>
+      <c r="E848">
+        <v>338.19287000000003</v>
+      </c>
+      <c r="F848">
+        <v>17.851939999999999</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>316.72331000000003</v>
+      </c>
+      <c r="B849">
+        <v>24.141670000000001</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>318.96057000000002</v>
+      </c>
+      <c r="B850">
+        <v>21.30827</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>335.41532999999998</v>
+      </c>
+      <c r="B851">
+        <v>16.413540000000001</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>341.57299999999998</v>
+      </c>
+      <c r="B852">
+        <v>13.9312</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>327.22588000000002</v>
+      </c>
+      <c r="B853">
+        <v>18.94538</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>386.70042999999998</v>
+      </c>
+      <c r="B854">
+        <v>11.131349999999999</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>312.42599000000001</v>
+      </c>
+      <c r="B855">
+        <v>23.74606</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>336.40762000000001</v>
+      </c>
+      <c r="B856">
+        <v>16.92193</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>379.09762000000001</v>
+      </c>
+      <c r="B857">
+        <v>11.33502</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>322.28104999999999</v>
+      </c>
+      <c r="B858">
+        <v>19.737089999999998</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>343.34721000000002</v>
+      </c>
+      <c r="B859">
+        <v>15.98507</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>346.11394999999999</v>
+      </c>
+      <c r="B861">
+        <v>13.62895</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>361.27386000000001</v>
+      </c>
+      <c r="B862">
+        <v>13.412419999999999</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>408.23104000000001</v>
+      </c>
+      <c r="B863">
+        <v>10.78786</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>367.08647000000002</v>
+      </c>
+      <c r="B864">
+        <v>13.14348</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>328.17838999999998</v>
+      </c>
+      <c r="B865">
+        <v>16.30058</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>366.87983000000003</v>
+      </c>
+      <c r="B866">
+        <v>10.6844</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>334.75700999999998</v>
+      </c>
+      <c r="B867">
+        <v>16.830010000000001</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>324.97199000000001</v>
+      </c>
+      <c r="B868">
+        <v>20.280290000000001</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>374.96420000000001</v>
+      </c>
+      <c r="B869">
+        <v>11.311809999999999</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>329.70411000000001</v>
+      </c>
+      <c r="B870">
+        <v>16.94304</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>326.32938999999999</v>
+      </c>
+      <c r="B871">
+        <v>19.53322</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>333.75333000000001</v>
+      </c>
+      <c r="B872">
+        <v>17.497440000000001</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>332.49892999999997</v>
+      </c>
+      <c r="B874">
+        <v>19.47953</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>326.52114</v>
+      </c>
+      <c r="B875">
+        <v>19.822849999999999</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>337.04944</v>
+      </c>
+      <c r="B876">
+        <v>16.714220000000001</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>338.82137</v>
+      </c>
+      <c r="B877">
+        <v>15.253019999999999</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>345.23489000000001</v>
+      </c>
+      <c r="B878">
+        <v>15.65814</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>338.57355999999999</v>
+      </c>
+      <c r="B879">
+        <v>15.10994</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>354.54145</v>
+      </c>
+      <c r="B880">
+        <v>14.770289999999999</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>354.54145</v>
+      </c>
+      <c r="B882">
+        <v>14.770289999999999</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>324.71161000000001</v>
+      </c>
+      <c r="B883">
+        <v>18.956219999999998</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>340.91996</v>
+      </c>
+      <c r="B884">
+        <v>15.81856</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A885">
+        <v>325.89526999999998</v>
+      </c>
+      <c r="B885">
+        <v>19.555340000000001</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A886">
+        <v>363.28304000000003</v>
+      </c>
+      <c r="B886">
+        <v>13.47212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
